--- a/平成31年度/シースリーカップ/3.参加チームメンバー表/シースリーカップ メンバー表(上川西）.xlsx
+++ b/平成31年度/シースリーカップ/3.参加チームメンバー表/シースリーカップ メンバー表(上川西）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homepage\kamikawa\その他資料\2019\201907 栃尾シースリーカップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC229F9B-AE11-4775-B0C6-5EE20647872A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35ED31-A622-4F0F-8534-EFBB39ED74C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="105" windowWidth="16770" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="45" windowWidth="23685" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参加申込書" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -162,9 +164,6 @@
     <t>大河内 優</t>
   </si>
   <si>
-    <t>仙浪　拓斗</t>
-  </si>
-  <si>
     <t>橋本　人宇</t>
   </si>
   <si>
@@ -228,10 +227,6 @@
   </si>
   <si>
     <t>おおこうち　りく</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
-  </si>
-  <si>
-    <t>せんなみ　たくと</t>
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
@@ -246,6 +241,14 @@
     <rPh sb="1" eb="3">
       <t>かわにし</t>
     </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>福田　拓斗</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ふくだ　たくと</t>
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
 </sst>
@@ -1441,10 +1444,40 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="28" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,40 +1486,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1502,6 +1505,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,46 +1546,43 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="28" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1966,7 +1969,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2011,55 +2014,55 @@
         <v>0</v>
       </c>
       <c r="B3" s="51"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2068,11 +2071,11 @@
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="10"/>
@@ -2080,29 +2083,29 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2118,422 +2121,422 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" thickBot="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" thickTop="1">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1">
       <c r="A13" s="18">
         <v>4</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
+      <c r="B13" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="5">
         <v>154</v>
       </c>
       <c r="G13" s="5">
         <v>6</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="33"/>
+      <c r="H13" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1">
       <c r="A14" s="18">
         <v>5</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="B14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="5">
         <v>143</v>
       </c>
       <c r="G14" s="5">
         <v>6</v>
       </c>
-      <c r="H14" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="33"/>
+      <c r="H14" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1">
       <c r="A15" s="18">
         <v>6</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="37"/>
+      <c r="B15" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="39"/>
       <c r="F15" s="5">
         <v>155</v>
       </c>
       <c r="G15" s="5">
         <v>6</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="33"/>
+      <c r="H15" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1">
       <c r="A16" s="18">
         <v>7</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="37"/>
+      <c r="B16" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="39"/>
       <c r="F16" s="5">
         <v>140</v>
       </c>
       <c r="G16" s="5">
         <v>6</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="33"/>
+      <c r="H16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1">
       <c r="A17" s="18">
         <v>8</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="37"/>
+      <c r="B17" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="39"/>
       <c r="F17" s="5">
         <v>140</v>
       </c>
       <c r="G17" s="5">
         <v>6</v>
       </c>
-      <c r="H17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="33"/>
+      <c r="H17" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1">
       <c r="A18" s="18">
         <v>9</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="37"/>
+      <c r="B18" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="39"/>
       <c r="F18" s="5">
         <v>136</v>
       </c>
       <c r="G18" s="5">
         <v>5</v>
       </c>
-      <c r="H18" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="33"/>
+      <c r="H18" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1">
       <c r="A19" s="18">
         <v>10</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="37"/>
+      <c r="B19" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="39"/>
       <c r="F19" s="5">
         <v>140</v>
       </c>
       <c r="G19" s="5">
         <v>5</v>
       </c>
-      <c r="H19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="33"/>
+      <c r="H19" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="1:9" ht="22.5" customHeight="1">
       <c r="A20" s="18">
         <v>11</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="37"/>
+      <c r="B20" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="39"/>
       <c r="F20" s="5">
         <v>137</v>
       </c>
       <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="33"/>
+      <c r="H20" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" customHeight="1">
       <c r="A21" s="18">
         <v>12</v>
       </c>
-      <c r="B21" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="37"/>
+      <c r="B21" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="39"/>
       <c r="F21" s="5">
         <v>137</v>
       </c>
       <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="33"/>
+      <c r="H21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" ht="22.5" customHeight="1">
       <c r="A22" s="18">
         <v>13</v>
       </c>
-      <c r="B22" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="37"/>
+      <c r="B22" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="39"/>
       <c r="F22" s="5">
         <v>132</v>
       </c>
       <c r="G22" s="5">
         <v>4</v>
       </c>
-      <c r="H22" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="33"/>
+      <c r="H22" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" ht="22.5" customHeight="1">
       <c r="A23" s="18">
         <v>14</v>
       </c>
-      <c r="B23" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="37"/>
+      <c r="B23" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="39"/>
       <c r="F23" s="5">
         <v>135</v>
       </c>
       <c r="G23" s="5">
         <v>4</v>
       </c>
-      <c r="H23" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="33"/>
+      <c r="H23" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" ht="22.5" customHeight="1">
       <c r="A24" s="18">
         <v>15</v>
       </c>
-      <c r="B24" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="37"/>
+      <c r="B24" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="39"/>
       <c r="F24" s="5">
         <v>122</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
       </c>
-      <c r="H24" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="33"/>
+      <c r="H24" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9" ht="22.5" customHeight="1">
       <c r="A25" s="18">
         <v>16</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" ht="22.5" customHeight="1">
       <c r="A26" s="18">
         <v>17</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:9" ht="22.5" customHeight="1">
       <c r="A27" s="18">
         <v>18</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:9" ht="22.5" customHeight="1">
       <c r="A28" s="18">
         <v>19</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:9" ht="22.5" customHeight="1">
       <c r="A29" s="18">
         <v>20</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="72"/>
     </row>
     <row r="30" spans="1:9" ht="22.5" customHeight="1">
       <c r="A30" s="18">
         <v>21</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:9" ht="22.5" customHeight="1">
       <c r="A31" s="18">
         <v>22</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
       <c r="A32" s="19">
         <v>23</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="72"/>
     </row>
     <row r="33" spans="1:9" ht="11.25" customHeight="1">
       <c r="A33" s="21"/>
@@ -2638,24 +2641,41 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B26:C26"/>
@@ -2672,6 +2692,24 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="A10:B10"/>
@@ -2682,41 +2720,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="Hiragana"/>
   <hyperlinks>
